--- a/3D_Scan/Matrices.xlsx
+++ b/3D_Scan/Matrices.xlsx
@@ -371,127 +371,127 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="J1">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="K1">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="L1">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="M1">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="N1">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="O1">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="P1">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="W1">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="X1">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="Y1">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Z1">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="AA1">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AB1">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AC1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AD1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE1">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="AF1">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AG1">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AH1">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AI1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ1">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AK1">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AL1">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AM1">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="AN1">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="AO1">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AP1">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AQ1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AR1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AS1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AU1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AV1">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:48">
@@ -517,127 +517,127 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="M2">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="N2">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="P2">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="Q2">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:48">
@@ -663,127 +663,127 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M3">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="O3">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="P3">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>197</v>
+        <v>416</v>
       </c>
       <c r="Y3">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="AL3">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>105</v>
+        <v>452</v>
       </c>
       <c r="AO3">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="AP3">
-        <v>61</v>
+        <v>446</v>
       </c>
       <c r="AQ3">
-        <v>21</v>
+        <v>451</v>
       </c>
       <c r="AR3">
-        <v>21</v>
+        <v>438</v>
       </c>
       <c r="AS3">
-        <v>20</v>
+        <v>433</v>
       </c>
       <c r="AT3">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="AU3">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="AV3">
-        <v>21</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/3D_Scan/Matrices.xlsx
+++ b/3D_Scan/Matrices.xlsx
@@ -371,28 +371,28 @@
         <v>0</v>
       </c>
       <c r="H1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="P1">
         <v>0</v>
@@ -464,19 +464,19 @@
         <v>0</v>
       </c>
       <c r="AM1">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AN1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO1">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AP1">
         <v>0</v>
       </c>
       <c r="AQ1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR1">
         <v>0</v>
@@ -485,10 +485,10 @@
         <v>0</v>
       </c>
       <c r="AT1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AU1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV1">
         <v>0</v>
@@ -523,25 +523,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -759,31 +759,31 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>344</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
